--- a/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
+++ b/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\GobangAdventure\Unity\NewWheel\VampireBuilder1\DesignData\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\GobangAdventure\Unity\NewWheel\VampireBuilder1\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC15893-E54F-45E3-A712-8D1BB2F1FD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A0FC45-6BBC-40DB-84E0-D40B5E422CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="3675" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="525" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -136,9 +136,6 @@
     <t>level 1 des</t>
   </si>
   <si>
-    <t>attack</t>
-  </si>
-  <si>
     <t>level 2 des</t>
   </si>
   <si>
@@ -146,6 +143,12 @@
   </si>
   <si>
     <t>attributeType</t>
+  </si>
+  <si>
+    <t>ATTACK</t>
+  </si>
+  <si>
+    <t>CRITICAL_RATE</t>
   </si>
 </sst>
 </file>
@@ -545,7 +548,7 @@
   <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -700,7 +703,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>19</v>
@@ -745,7 +748,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I5">
         <v>2.5</v>
@@ -756,10 +759,10 @@
         <v>2</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -770,10 +773,10 @@
         <v>3</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I7">
         <v>11</v>

--- a/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
+++ b/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\GobangAdventure\Unity\NewWheel\VampireBuilder1\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A0FC45-6BBC-40DB-84E0-D40B5E422CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47362446-64C3-48C3-B6C3-6D2DCA407750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="525" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -106,21 +106,12 @@
     <t>dependencies</t>
   </si>
   <si>
-    <t>(list#sep=;),string</t>
-  </si>
-  <si>
-    <t>ChainLightning</t>
-  </si>
-  <si>
     <t>Chain Lightning</t>
   </si>
   <si>
     <t>Chain Lightning desciprition</t>
   </si>
   <si>
-    <t>Explosion;Slow</t>
-  </si>
-  <si>
     <t>*levels</t>
   </si>
   <si>
@@ -149,18 +140,37 @@
   </si>
   <si>
     <t>CRITICAL_RATE</t>
+  </si>
+  <si>
+    <t>CHAIN_LIGHTNING</t>
+  </si>
+  <si>
+    <t>SkillId</t>
+  </si>
+  <si>
+    <t>(list#sep=;),SkillId</t>
+  </si>
+  <si>
+    <t>EXPLOSION;SLOW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,29 +255,34 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -548,7 +563,7 @@
   <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -581,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -642,8 +657,8 @@
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
+      <c r="B3" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -651,11 +666,11 @@
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
+      <c r="E3" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -697,16 +712,16 @@
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -729,26 +744,26 @@
       <c r="AB4"/>
     </row>
     <row r="5" spans="1:28">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
+      <c r="E5" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I5">
         <v>2.5</v>
@@ -759,10 +774,10 @@
         <v>2</v>
       </c>
       <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -773,10 +788,10 @@
         <v>3</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="I7">
         <v>11</v>

--- a/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
+++ b/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\GobangAdventure\Unity\NewWheel\VampireBuilder1\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47362446-64C3-48C3-B6C3-6D2DCA407750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698AB46B-40FB-417E-9014-D67613D35E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="525" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -139,9 +139,6 @@
     <t>ATTACK</t>
   </si>
   <si>
-    <t>CRITICAL_RATE</t>
-  </si>
-  <si>
     <t>CHAIN_LIGHTNING</t>
   </si>
   <si>
@@ -152,18 +149,44 @@
   </si>
   <si>
     <t>EXPLOSION;SLOW</t>
+  </si>
+  <si>
+    <t>*initialAttributes</t>
+  </si>
+  <si>
+    <t>list,AttributeTypeAndFloat</t>
+  </si>
+  <si>
+    <t>AREA</t>
+  </si>
+  <si>
+    <t>ATTACK_DECREASE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -252,37 +275,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -560,23 +645,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1">
@@ -595,14 +680,16 @@
       <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1"/>
-      <c r="K1"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1"/>
@@ -629,12 +716,24 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2"/>
-      <c r="K2"/>
+      <c r="F2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
@@ -657,8 +756,8 @@
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>24</v>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -666,17 +765,19 @@
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3"/>
-      <c r="K3"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
@@ -708,23 +809,13 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4"/>
-      <c r="K4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
@@ -744,8 +835,8 @@
       <c r="AB4"/>
     </row>
     <row r="5" spans="1:28">
-      <c r="B5" s="9" t="s">
-        <v>23</v>
+      <c r="B5" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>11</v>
@@ -753,55 +844,78 @@
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="14">
+        <v>8</v>
+      </c>
+      <c r="H5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
         <v>17</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5">
-        <v>2.5</v>
       </c>
     </row>
     <row r="6" spans="1:28">
-      <c r="F6" s="5">
+      <c r="F6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="10">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5">
         <v>2</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="I6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:28">
-      <c r="F7" s="5">
+      <c r="F7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="H7" s="5">
         <v>3</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="I7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
+  <mergeCells count="4">
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
+++ b/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\GobangAdventure\Unity\NewWheel\VampireBuilder1\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698AB46B-40FB-417E-9014-D67613D35E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F945C02F-D4EC-43AF-A05E-A7EEF48B3B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,9 +124,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>level 1 des</t>
-  </si>
-  <si>
     <t>level 2 des</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>ATTACK_DECREASE</t>
+  </si>
+  <si>
+    <t>level 4 des</t>
   </si>
 </sst>
 </file>
@@ -320,7 +320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -368,6 +368,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -648,7 +649,7 @@
   <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -681,7 +682,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="17"/>
       <c r="H1" s="12" t="s">
@@ -717,7 +718,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>16</v>
@@ -726,7 +727,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>16</v>
@@ -757,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -766,10 +767,10 @@
         <v>4</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="13" t="s">
@@ -836,7 +837,7 @@
     </row>
     <row r="5" spans="1:28">
       <c r="B5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>11</v>
@@ -845,65 +846,65 @@
         <v>12</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="14">
         <v>8</v>
       </c>
       <c r="H5" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5">
         <v>9</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:28">
       <c r="F6" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="10">
         <v>3</v>
       </c>
       <c r="H6" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6">
         <v>10</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:28">
       <c r="F7" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="11">
         <v>0.15</v>
       </c>
       <c r="H7" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J7">
         <v>4</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>19</v>
+      <c r="K7" s="21" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:28">

--- a/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
+++ b/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\GobangAdventure\Unity\NewWheel\VampireBuilder1\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F945C02F-D4EC-43AF-A05E-A7EEF48B3B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDE2D01-3051-45EC-850C-2C4656155BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="3300" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -162,17 +162,33 @@
   <si>
     <t>level 4 des</t>
   </si>
+  <si>
+    <t>skillType</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>SkillType</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,60 +329,61 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -646,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -658,14 +675,15 @@
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="8" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1">
+    <row r="1" spans="1:29" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -679,19 +697,21 @@
         <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
       <c r="M1"/>
       <c r="N1"/>
       <c r="O1"/>
@@ -708,8 +728,9 @@
       <c r="Z1"/>
       <c r="AA1"/>
       <c r="AB1"/>
+      <c r="AC1"/>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1">
+    <row r="2" spans="1:29" s="1" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -717,25 +738,25 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
@@ -752,8 +773,9 @@
       <c r="Z2"/>
       <c r="AA2"/>
       <c r="AB2"/>
+      <c r="AC2"/>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1">
+    <row r="3" spans="1:29" s="2" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -766,20 +788,22 @@
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="21"/>
+      <c r="I3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
@@ -796,8 +820,9 @@
       <c r="Z3"/>
       <c r="AA3"/>
       <c r="AB3"/>
+      <c r="AC3"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1">
+    <row r="4" spans="1:29" s="1" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -811,13 +836,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="9"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4"/>
+      <c r="L4" s="3"/>
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
@@ -834,8 +859,9 @@
       <c r="Z4"/>
       <c r="AA4"/>
       <c r="AB4"/>
+      <c r="AC4"/>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:29">
       <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
@@ -845,78 +871,81 @@
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="14">
+      <c r="H5" s="12">
         <v>8</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>9</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="L5" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
-      <c r="F6" s="15" t="s">
+    <row r="6" spans="1:29">
+      <c r="G6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="10">
+      <c r="H6" s="10">
         <v>3</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>3</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>10</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="L6" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
-      <c r="F7" s="11" t="s">
+    <row r="7" spans="1:29">
+      <c r="G7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="11">
+      <c r="H7" s="11">
         <v>0.15</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>4</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="J7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>4</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="L7" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
-      <c r="F8" s="11"/>
+    <row r="8" spans="1:29">
       <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
+++ b/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\GobangAdventure\Unity\NewWheel\VampireBuilder1\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDE2D01-3051-45EC-850C-2C4656155BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7222D5F4-E220-475C-97A2-7FFB16495EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3735" yWindow="3300" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -171,17 +171,48 @@
   <si>
     <t>SkillType</t>
   </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Attack description</t>
+  </si>
+  <si>
+    <t>PASSIVE</t>
+  </si>
+  <si>
+    <t>Increase attack by 10%</t>
+  </si>
+  <si>
+    <t>Increase attack by 20%</t>
+  </si>
+  <si>
+    <t>Increase attack by 30%</t>
+  </si>
+  <si>
+    <t>Increase attack by 40%</t>
+  </si>
+  <si>
+    <t>Increase attack by 50%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,63 +360,64 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -663,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -680,7 +712,7 @@
     <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1">
@@ -702,16 +734,16 @@
       <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="16" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
       <c r="M1"/>
       <c r="N1"/>
       <c r="O1"/>
@@ -794,16 +826,16 @@
       <c r="F3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="17" t="s">
+      <c r="H3" s="22"/>
+      <c r="I3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
@@ -871,7 +903,7 @@
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -937,8 +969,88 @@
       </c>
     </row>
     <row r="8" spans="1:29">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
+      <c r="I8" s="23">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="I9" s="23">
+        <v>2</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>1.2</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="I10" s="23">
+        <v>3</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10">
+        <v>1.3</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="I11" s="23">
+        <v>4</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>1.4</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="I12" s="23">
+        <v>5</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <v>1.5</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
+++ b/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\GobangAdventure\Unity\NewWheel\VampireBuilder1\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7222D5F4-E220-475C-97A2-7FFB16495EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B264FF37-73D9-4AC3-BE49-D4C4597CE129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3735" yWindow="3300" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -145,9 +145,6 @@
     <t>(list#sep=;),SkillId</t>
   </si>
   <si>
-    <t>EXPLOSION;SLOW</t>
-  </si>
-  <si>
     <t>*initialAttributes</t>
   </si>
   <si>
@@ -194,18 +191,37 @@
   </si>
   <si>
     <t>Increase attack by 50%</t>
+  </si>
+  <si>
+    <t>COMMON</t>
+  </si>
+  <si>
+    <t>Not a skill</t>
+  </si>
+  <si>
+    <t>CRITICAL_RATE</t>
+  </si>
+  <si>
+    <t>CRITICAL_AMOUNT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,7 +315,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -337,15 +353,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -360,64 +367,65 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -695,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC12"/>
+  <dimension ref="A1:AC17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -729,21 +737,21 @@
         <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="17" t="s">
+      <c r="G1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="22"/>
+      <c r="I1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
       <c r="M1"/>
       <c r="N1"/>
       <c r="O1"/>
@@ -821,21 +829,21 @@
         <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="18" t="s">
+      <c r="G3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="I3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
@@ -895,161 +903,243 @@
     </row>
     <row r="5" spans="1:29">
       <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>24</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="8"/>
       <c r="G5" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="12">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="B6" s="6"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="B7" s="6"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="12">
+        <v>2</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="B8" s="6"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="B9" s="6"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="12">
         <v>8</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I10" s="5">
         <v>2</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5">
-        <v>9</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
-      <c r="G6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="10">
-        <v>3</v>
-      </c>
-      <c r="I6" s="5">
-        <v>3</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6">
-        <v>10</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
-      <c r="G7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0.15</v>
-      </c>
-      <c r="I7" s="5">
-        <v>4</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7">
-        <v>4</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="23">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
-      <c r="I9" s="23">
-        <v>2</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9">
-        <v>1.2</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
-      <c r="I10" s="23">
-        <v>3</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K10">
-        <v>1.3</v>
-      </c>
-      <c r="L10" s="23" t="s">
-        <v>38</v>
+        <v>9</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:29">
-      <c r="I11" s="23">
-        <v>4</v>
+      <c r="G11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="10">
+        <v>3</v>
+      </c>
+      <c r="I11" s="5">
+        <v>3</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="G12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="I12" s="5">
+        <v>4</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="16">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="I14" s="16">
+        <v>2</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14">
+        <v>1.2</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="I15" s="16">
+        <v>3</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15">
+        <v>1.3</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="I16" s="16">
+        <v>4</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16">
         <v>1.4</v>
       </c>
-      <c r="L11" s="23" t="s">
+      <c r="L16" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="9:12">
+      <c r="I17" s="16">
+        <v>5</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <v>1.5</v>
+      </c>
+      <c r="L17" s="16" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="I12" s="23">
-        <v>5</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12">
-        <v>1.5</v>
-      </c>
-      <c r="L12" s="23" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
+++ b/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\GobangAdventure\Unity\NewWheel\VampireBuilder1\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B264FF37-73D9-4AC3-BE49-D4C4597CE129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B9DB68-F59C-4701-8FD2-4C269638F205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3735" yWindow="3300" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -204,17 +204,27 @@
   <si>
     <t>CRITICAL_AMOUNT</t>
   </si>
+  <si>
+    <t>NONE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -367,65 +377,66 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -703,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC17"/>
+  <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1006,16 +1017,16 @@
         <v>8</v>
       </c>
       <c r="I10" s="5">
-        <v>2</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>9</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1026,16 +1037,16 @@
         <v>3</v>
       </c>
       <c r="I11" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1046,99 +1057,115 @@
         <v>0.15</v>
       </c>
       <c r="I12" s="5">
-        <v>4</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:29">
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="16">
+      <c r="I13" s="5">
+        <v>4</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="16">
         <v>1</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="I14" s="16">
-        <v>2</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K14">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:29">
       <c r="I15" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K15">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:29">
       <c r="I16" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K16">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="9:12">
       <c r="I17" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K17">
+        <v>1.4</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="9:12">
+      <c r="I18" s="16">
+        <v>5</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18">
         <v>1.5</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="L18" s="16" t="s">
         <v>39</v>
       </c>
     </row>

--- a/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
+++ b/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\GobangAdventure\Unity\NewWheel\VampireBuilder1\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B9DB68-F59C-4701-8FD2-4C269638F205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08B6F91-A3A7-4463-B749-D739D6F33078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="3300" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4350" yWindow="4260" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Chain Lightning</t>
   </si>
   <si>
-    <t>Chain Lightning desciprition</t>
-  </si>
-  <si>
     <t>*levels</t>
   </si>
   <si>
@@ -124,12 +121,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>level 2 des</t>
-  </si>
-  <si>
-    <t>level 3 des</t>
-  </si>
-  <si>
     <t>attributeType</t>
   </si>
   <si>
@@ -157,9 +148,6 @@
     <t>ATTACK_DECREASE</t>
   </si>
   <si>
-    <t>level 4 des</t>
-  </si>
-  <si>
     <t>skillType</t>
   </si>
   <si>
@@ -172,9 +160,6 @@
     <t>Attack</t>
   </si>
   <si>
-    <t>Attack description</t>
-  </si>
-  <si>
     <t>PASSIVE</t>
   </si>
   <si>
@@ -206,13 +191,46 @@
   </si>
   <si>
     <t>NONE</t>
+  </si>
+  <si>
+    <t>ONE_PUNCH</t>
+  </si>
+  <si>
+    <t>One Punch</t>
+  </si>
+  <si>
+    <t>One punch to hit an enemy</t>
+  </si>
+  <si>
+    <t>Increase the critical amount to 300%</t>
+  </si>
+  <si>
+    <t>Increase the critical amount to 400%</t>
+  </si>
+  <si>
+    <t>Increase the critical amount to 500%</t>
+  </si>
+  <si>
+    <t>Increase attack to 9</t>
+  </si>
+  <si>
+    <t>Increase attack to 10</t>
+  </si>
+  <si>
+    <t>Increase the bounce count to 4</t>
+  </si>
+  <si>
+    <t>Hurls a bolt of lightning that bounces up to 3 times. Each jump deals 15% less damage</t>
+  </si>
+  <si>
+    <t>Increase the base attack factor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +296,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -300,6 +325,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -325,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -374,69 +406,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -714,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC18"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -729,9 +786,9 @@
     <col min="5" max="5" width="26.140625" customWidth="1"/>
     <col min="6" max="8" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.85546875" customWidth="1"/>
+    <col min="12" max="12" width="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1">
@@ -748,21 +805,21 @@
         <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
+      <c r="G1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="21"/>
+      <c r="I1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
       <c r="M1"/>
       <c r="N1"/>
       <c r="O1"/>
@@ -791,19 +848,19 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>9</v>
@@ -831,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -840,21 +897,21 @@
         <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="23"/>
+      <c r="I3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
@@ -914,20 +971,20 @@
     </row>
     <row r="5" spans="1:29">
       <c r="B5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H5" s="12">
         <v>1</v>
@@ -938,11 +995,11 @@
     </row>
     <row r="6" spans="1:29">
       <c r="B6" s="6"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="18" t="s">
-        <v>42</v>
+      <c r="G6" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="H6" s="12">
         <v>0.05</v>
@@ -953,11 +1010,11 @@
     </row>
     <row r="7" spans="1:29">
       <c r="B7" s="6"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="18" t="s">
-        <v>43</v>
+      <c r="G7" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="H7" s="12">
         <v>2</v>
@@ -968,11 +1025,11 @@
     </row>
     <row r="8" spans="1:29">
       <c r="B8" s="6"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
       <c r="F8" s="8"/>
       <c r="G8" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H8" s="12">
         <v>1</v>
@@ -983,11 +1040,11 @@
     </row>
     <row r="9" spans="1:29">
       <c r="B9" s="6"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
       <c r="F9" s="8"/>
       <c r="G9" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H9" s="12">
         <v>1</v>
@@ -997,41 +1054,43 @@
       <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="B10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="12">
+      <c r="D10" s="31" t="str">
+        <f>L10</f>
+        <v>Hurls a bolt of lightning that bounces up to 3 times. Each jump deals 15% less damage</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="34">
         <v>8</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="28">
         <v>1</v>
       </c>
-      <c r="J10" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10">
+      <c r="J10" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="25">
         <v>0</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>12</v>
+      <c r="L10" s="30" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:29">
       <c r="G11" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H11" s="10">
         <v>3</v>
@@ -1040,18 +1099,18 @@
         <v>2</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K11">
         <v>9</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:29">
       <c r="G12" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H12" s="11">
         <v>0.15</v>
@@ -1060,13 +1119,13 @@
         <v>3</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K12">
         <v>10</v>
       </c>
-      <c r="L12" s="14" t="s">
-        <v>18</v>
+      <c r="L12" s="24" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1076,97 +1135,186 @@
         <v>4</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K13">
         <v>4</v>
       </c>
       <c r="L13" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="25"/>
+      <c r="B14" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="31" t="str">
+        <f>L14</f>
+        <v>One punch to hit an enemy</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="34">
+        <v>20</v>
+      </c>
+      <c r="I14" s="28">
+        <v>1</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="25">
+        <v>0</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="G15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="I15" s="5">
+        <v>2</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="5">
+        <v>3</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="5">
+        <v>4</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D18" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="27">
+        <v>1</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="I19" s="15">
+        <v>2</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19">
+        <v>1.2</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="I20" s="15">
+        <v>3</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20">
+        <v>1.3</v>
+      </c>
+      <c r="L20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="21" spans="1:12">
+      <c r="I21" s="15">
+        <v>4</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21">
+        <v>1.4</v>
+      </c>
+      <c r="L21" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="22" spans="1:12">
+      <c r="I22" s="15">
+        <v>5</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22">
+        <v>1.5</v>
+      </c>
+      <c r="L22" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="16">
-        <v>1</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
-      <c r="I15" s="16">
-        <v>2</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15">
-        <v>1.2</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="I16" s="16">
-        <v>3</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16">
-        <v>1.3</v>
-      </c>
-      <c r="L16" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="9:12">
-      <c r="I17" s="16">
-        <v>4</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17">
-        <v>1.4</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="9:12">
-      <c r="I18" s="16">
-        <v>5</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18">
-        <v>1.5</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
+++ b/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\GobangAdventure\Unity\NewWheel\VampireBuilder1\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08B6F91-A3A7-4463-B749-D739D6F33078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E85136-110B-493F-A3FF-D98EEB437EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="4260" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1965" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>##var</t>
   </si>
@@ -224,6 +224,24 @@
   </si>
   <si>
     <t>Increase the base attack factor</t>
+  </si>
+  <si>
+    <t>Shock Wave</t>
+  </si>
+  <si>
+    <t>SHOCK_WAVE</t>
+  </si>
+  <si>
+    <t>A wave of force causing damage to land units in a line</t>
+  </si>
+  <si>
+    <t>Increase the area to 2</t>
+  </si>
+  <si>
+    <t>Increase the area to 2.5</t>
+  </si>
+  <si>
+    <t>Increase the area to 3</t>
   </si>
 </sst>
 </file>
@@ -458,24 +476,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -494,6 +494,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -771,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC22"/>
+  <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -810,16 +828,16 @@
       <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="18" t="s">
+      <c r="H1" s="33"/>
+      <c r="I1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
       <c r="M1"/>
       <c r="N1"/>
       <c r="O1"/>
@@ -902,16 +920,16 @@
       <c r="F3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="19" t="s">
+      <c r="H3" s="35"/>
+      <c r="I3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
@@ -1054,37 +1072,37 @@
       <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="25"/>
-      <c r="B10" s="29" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="31" t="str">
+      <c r="D10" s="25" t="str">
         <f>L10</f>
         <v>Hurls a bolt of lightning that bounces up to 3 times. Each jump deals 15% less damage</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34" t="s">
+      <c r="F10" s="27"/>
+      <c r="G10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="28">
         <v>8</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="22">
         <v>1</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="J10" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="19">
         <v>0</v>
       </c>
-      <c r="L10" s="30" t="s">
+      <c r="L10" s="24" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1124,7 +1142,7 @@
       <c r="K12">
         <v>10</v>
       </c>
-      <c r="L12" s="24" t="s">
+      <c r="L12" s="18" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1145,37 +1163,37 @@
       </c>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="25"/>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="31" t="str">
+      <c r="D14" s="25" t="str">
         <f>L14</f>
         <v>One punch to hit an enemy</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34" t="s">
+      <c r="F14" s="27"/>
+      <c r="G14" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="28">
         <v>20</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="22">
         <v>1</v>
       </c>
-      <c r="J14" s="35" t="s">
+      <c r="J14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="19">
         <v>0</v>
       </c>
-      <c r="L14" s="28" t="s">
+      <c r="L14" s="22" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1211,7 +1229,7 @@
       <c r="K16">
         <v>2</v>
       </c>
-      <c r="L16" s="24" t="s">
+      <c r="L16" s="18" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1227,93 +1245,180 @@
       <c r="K17">
         <v>3</v>
       </c>
-      <c r="L17" s="24" t="s">
+      <c r="L17" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="25" t="str">
+        <f>L18</f>
+        <v>A wave of force causing damage to land units in a line</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="H18" s="28">
+        <v>10</v>
+      </c>
+      <c r="I18" s="22">
+        <v>1</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="19">
+        <v>0</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="G19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="I19" s="5">
+        <v>2</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="5">
+        <v>3</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20">
+        <v>2.5</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="5">
+        <v>4</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D22" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E22" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27">
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="21">
         <v>1</v>
       </c>
-      <c r="J18" s="28" t="s">
+      <c r="J22" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K22" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L18" s="27" t="s">
+      <c r="L22" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="I19" s="15">
+    <row r="23" spans="1:12">
+      <c r="I23" s="15">
         <v>2</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K19">
+      <c r="K23">
         <v>1.2</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="L23" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="I20" s="15">
+    <row r="24" spans="1:12">
+      <c r="I24" s="15">
         <v>3</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K20">
+      <c r="K24">
         <v>1.3</v>
       </c>
-      <c r="L20" s="15" t="s">
+      <c r="L24" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="I21" s="15">
+    <row r="25" spans="1:12">
+      <c r="I25" s="15">
         <v>4</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K21">
+      <c r="K25">
         <v>1.4</v>
       </c>
-      <c r="L21" s="15" t="s">
+      <c r="L25" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="I22" s="15">
+    <row r="26" spans="1:12">
+      <c r="I26" s="15">
         <v>5</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K22">
+      <c r="K26">
         <v>1.5</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="L26" s="15" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
+++ b/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\GobangAdventure\Unity\NewWheel\VampireBuilder1\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E85136-110B-493F-A3FF-D98EEB437EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AACDC3-6F0E-4C47-9D09-2526D9BA0227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1965" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
   <si>
     <t>##var</t>
   </si>
@@ -242,6 +242,15 @@
   </si>
   <si>
     <t>Increase the area to 3</t>
+  </si>
+  <si>
+    <t>Explode after hit an enemy</t>
+  </si>
+  <si>
+    <t>EXPLOSION</t>
+  </si>
+  <si>
+    <t>Explosion</t>
   </si>
 </sst>
 </file>
@@ -789,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC26"/>
+  <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1165,14 +1174,14 @@
     <row r="14" spans="1:29">
       <c r="A14" s="19"/>
       <c r="B14" s="23" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D14" s="25" t="str">
         <f>L14</f>
-        <v>One punch to hit an enemy</v>
+        <v>Explode after hit an enemy</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>26</v>
@@ -1182,7 +1191,7 @@
         <v>17</v>
       </c>
       <c r="H14" s="28">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I14" s="22">
         <v>1</v>
@@ -1194,27 +1203,27 @@
         <v>0</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:29">
-      <c r="G15" s="17" t="s">
-        <v>37</v>
+      <c r="G15" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="H15" s="10">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="I15" s="5">
         <v>2</v>
       </c>
-      <c r="J15" s="17" t="s">
-        <v>38</v>
+      <c r="J15" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1223,14 +1232,14 @@
       <c r="I16" s="5">
         <v>3</v>
       </c>
-      <c r="J16" s="17" t="s">
-        <v>38</v>
+      <c r="J16" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1239,27 +1248,27 @@
       <c r="I17" s="5">
         <v>4</v>
       </c>
-      <c r="J17" s="17" t="s">
-        <v>38</v>
+      <c r="J17" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="K17">
         <v>3</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="19"/>
       <c r="B18" s="23" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D18" s="25" t="str">
         <f>L18</f>
-        <v>A wave of force causing damage to land units in a line</v>
+        <v>One punch to hit an enemy</v>
       </c>
       <c r="E18" s="26" t="s">
         <v>26</v>
@@ -1269,7 +1278,7 @@
         <v>17</v>
       </c>
       <c r="H18" s="28">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I18" s="22">
         <v>1</v>
@@ -1281,27 +1290,27 @@
         <v>0</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="G19" s="12" t="s">
-        <v>23</v>
+      <c r="G19" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="H19" s="10">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="I19" s="5">
         <v>2</v>
       </c>
-      <c r="J19" s="13" t="s">
-        <v>23</v>
+      <c r="J19" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1310,14 +1319,14 @@
       <c r="I20" s="5">
         <v>3</v>
       </c>
-      <c r="J20" s="13" t="s">
-        <v>23</v>
+      <c r="J20" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="K20">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1326,99 +1335,186 @@
       <c r="I21" s="5">
         <v>4</v>
       </c>
-      <c r="J21" s="13" t="s">
-        <v>23</v>
+      <c r="J21" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="K21">
         <v>3</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="19"/>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="25" t="str">
+        <f>L22</f>
+        <v>A wave of force causing damage to land units in a line</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="H22" s="28">
+        <v>10</v>
+      </c>
+      <c r="I22" s="22">
+        <v>1</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="19">
+        <v>0</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="G23" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="I23" s="5">
+        <v>2</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="5">
+        <v>3</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24">
+        <v>2.5</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="5">
+        <v>4</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D26" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E26" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21">
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="21">
         <v>1</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="J26" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K26" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L22" s="21" t="s">
+      <c r="L26" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="I23" s="15">
+    <row r="27" spans="1:12">
+      <c r="I27" s="15">
         <v>2</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K23">
+      <c r="K27">
         <v>1.2</v>
       </c>
-      <c r="L23" s="15" t="s">
+      <c r="L27" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="I24" s="15">
+    <row r="28" spans="1:12">
+      <c r="I28" s="15">
         <v>3</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K24">
+      <c r="K28">
         <v>1.3</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="L28" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="I25" s="15">
+    <row r="29" spans="1:12">
+      <c r="I29" s="15">
         <v>4</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K25">
+      <c r="K29">
         <v>1.4</v>
       </c>
-      <c r="L25" s="15" t="s">
+      <c r="L29" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="I26" s="15">
+    <row r="30" spans="1:12">
+      <c r="I30" s="15">
         <v>5</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K26">
+      <c r="K30">
         <v>1.5</v>
       </c>
-      <c r="L26" s="15" t="s">
+      <c r="L30" s="15" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
+++ b/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\GobangAdventure\Unity\NewWheel\VampireBuilder1\DesignerConfigs\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tigersun/Code/GobangAdventure/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AACDC3-6F0E-4C47-9D09-2526D9BA0227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF57AC1-037B-7E44-86D7-557DD1F19855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1965" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
   <si>
     <t>##var</t>
   </si>
@@ -252,12 +252,21 @@
   <si>
     <t>Explosion</t>
   </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>SPEED</t>
+  </si>
+  <si>
+    <t>PIERCE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,74 +461,94 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -798,27 +827,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC30"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
-    <col min="6" max="8" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="78" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="78" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1">
+    <row r="1" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -837,35 +867,35 @@
       <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="30" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1"/>
-      <c r="N1"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1"/>
-      <c r="T1"/>
-      <c r="U1"/>
-      <c r="V1"/>
-      <c r="W1"/>
-      <c r="X1"/>
-      <c r="Y1"/>
-      <c r="Z1"/>
-      <c r="AA1"/>
-      <c r="AB1"/>
-      <c r="AC1"/>
-    </row>
-    <row r="2" spans="1:29" s="1" customFormat="1">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+    </row>
+    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -874,10 +904,10 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -892,72 +922,72 @@
       <c r="L2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-    </row>
-    <row r="3" spans="1:29" s="2" customFormat="1">
-      <c r="A3" s="4" t="s">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+    </row>
+    <row r="3" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="31" t="s">
+      <c r="H3" s="27"/>
+      <c r="I3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AC3"/>
-    </row>
-    <row r="4" spans="1:29" s="1" customFormat="1">
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+    </row>
+    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -972,549 +1002,617 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4"/>
-    </row>
-    <row r="5" spans="1:29">
-      <c r="B5" s="6" t="s">
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>1</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="L5" s="14"/>
-    </row>
-    <row r="6" spans="1:29">
-      <c r="B6" s="6"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="17" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>0.05</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="1:29">
-      <c r="B7" s="6"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="17" t="s">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>2</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="1:29">
-      <c r="B8" s="6"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="12" t="s">
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>1</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:29">
-      <c r="B9" s="6"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="12" t="s">
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>1</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:29">
-      <c r="A10" s="19"/>
-      <c r="B10" s="23" t="s">
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="str">
+      <c r="D10" s="14" t="str">
         <f>L10</f>
         <v>Hurls a bolt of lightning that bounces up to 3 times. Each jump deals 15% less damage</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="17">
         <v>8</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="13">
         <v>1</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
-      <c r="G11" s="12" t="s">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="G11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="I11" s="12">
+        <v>2</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="1">
+        <v>9</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="G12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="12">
+        <v>3</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="1">
+        <v>10</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="G13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12">
+        <v>4</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="G14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="11"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="14" t="str">
+        <f>L15</f>
+        <v>Explode after hit an enemy</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="17">
+        <v>10</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="G16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H16" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="I16" s="12">
+        <v>2</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4</v>
+      </c>
+      <c r="I17" s="12">
         <v>3</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="1">
         <v>2</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="I18" s="12">
+        <v>4</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="1">
+        <v>3</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="11"/>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="14" t="str">
+        <f>L20</f>
+        <v>One punch to hit an enemy</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K11">
-        <v>9</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="G12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="11">
+      <c r="H20" s="17">
+        <v>20</v>
+      </c>
+      <c r="I20" s="13">
+        <v>1</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="21">
         <v>0.15</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I21" s="12">
+        <v>2</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4</v>
+      </c>
+      <c r="I22" s="12">
         <v>3</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2</v>
+      </c>
+      <c r="I23" s="12">
+        <v>4</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="1">
+        <v>3</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="9"/>
+      <c r="L24" s="20"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="14" t="str">
+        <f>L25</f>
+        <v>A wave of force causing damage to land units in a line</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K12">
+      <c r="H25" s="17">
         <v>10</v>
       </c>
-      <c r="L12" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="5">
+      <c r="I25" s="13">
+        <v>1</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="I26" s="12">
+        <v>2</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="1">
         <v>4</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="I27" s="12">
+        <v>3</v>
+      </c>
+      <c r="J27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K13">
+      <c r="K27" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2</v>
+      </c>
+      <c r="I28" s="12">
         <v>4</v>
       </c>
-      <c r="L13" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="A14" s="19"/>
-      <c r="B14" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="25" t="str">
-        <f>L14</f>
-        <v>Explode after hit an enemy</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28" t="s">
+      <c r="J28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="1">
+        <v>3</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="11"/>
+      <c r="L29" s="20"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="28">
-        <v>10</v>
-      </c>
-      <c r="I14" s="22">
+      <c r="C30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="22">
         <v>1</v>
       </c>
-      <c r="J14" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="19">
-        <v>0</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
-      <c r="G15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="10">
+      <c r="J30" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L30" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I31" s="23">
+        <v>2</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I32" s="23">
+        <v>3</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="L32" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I33" s="23">
+        <v>4</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="L33" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I34" s="23">
+        <v>5</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="1">
         <v>1.5</v>
       </c>
-      <c r="I15" s="5">
-        <v>2</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="5">
-        <v>3</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16">
-        <v>2.5</v>
-      </c>
-      <c r="L16" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="5">
-        <v>4</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="19"/>
-      <c r="B18" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="25" t="str">
-        <f>L18</f>
-        <v>One punch to hit an enemy</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="28">
-        <v>20</v>
-      </c>
-      <c r="I18" s="22">
-        <v>1</v>
-      </c>
-      <c r="J18" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="19">
-        <v>0</v>
-      </c>
-      <c r="L18" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="G19" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="I19" s="5">
-        <v>2</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="5">
-        <v>3</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="5">
-        <v>4</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="19"/>
-      <c r="B22" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="25" t="str">
-        <f>L22</f>
-        <v>A wave of force causing damage to land units in a line</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="28">
-        <v>10</v>
-      </c>
-      <c r="I22" s="22">
-        <v>1</v>
-      </c>
-      <c r="J22" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" s="19">
-        <v>0</v>
-      </c>
-      <c r="L22" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="G23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="I23" s="5">
-        <v>2</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="5">
-        <v>3</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24">
-        <v>2.5</v>
-      </c>
-      <c r="L24" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="5">
-        <v>4</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="21">
-        <v>1</v>
-      </c>
-      <c r="J26" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L26" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="I27" s="15">
-        <v>2</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27">
-        <v>1.2</v>
-      </c>
-      <c r="L27" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="I28" s="15">
-        <v>3</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28">
-        <v>1.3</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="I29" s="15">
-        <v>4</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29">
-        <v>1.4</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="I30" s="15">
-        <v>5</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30">
-        <v>1.5</v>
-      </c>
-      <c r="L30" s="15" t="s">
+      <c r="L34" s="23" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
+++ b/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tigersun/Code/GobangAdventure/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF57AC1-037B-7E44-86D7-557DD1F19855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2668D73-1FBA-B741-992B-38AD37875327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="60">
   <si>
     <t>##var</t>
   </si>
@@ -148,21 +148,9 @@
     <t>ATTACK_DECREASE</t>
   </si>
   <si>
-    <t>skillType</t>
-  </si>
-  <si>
-    <t>ACTIVE</t>
-  </si>
-  <si>
-    <t>SkillType</t>
-  </si>
-  <si>
     <t>Attack</t>
   </si>
   <si>
-    <t>PASSIVE</t>
-  </si>
-  <si>
     <t>Increase attack by 10%</t>
   </si>
   <si>
@@ -260,25 +248,21 @@
   </si>
   <si>
     <t>PIERCE</t>
+  </si>
+  <si>
+    <t>BEHAVIOR_TYPE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -454,14 +438,14 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -469,85 +453,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -827,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC34"/>
+  <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -839,16 +820,15 @@
     <col min="2" max="2" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="78" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="5" max="7" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="78" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -862,21 +842,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="F1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="29" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -893,9 +871,8 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-    </row>
-    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -903,25 +880,25 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -938,9 +915,8 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-    </row>
-    <row r="3" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -953,22 +929,20 @@
       <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="F3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28" t="s">
+      <c r="G3" s="28"/>
+      <c r="H3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -985,9 +959,8 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-    </row>
-    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1001,13 +974,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1024,89 +997,85 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="11">
-        <v>1</v>
-      </c>
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="E6" s="10"/>
+      <c r="F6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="11">
         <v>0.05</v>
       </c>
+      <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="11">
+      <c r="E7" s="10"/>
+      <c r="F7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="11">
         <v>2</v>
       </c>
+      <c r="H7" s="12"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="11">
-        <v>1</v>
-      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="11">
-        <v>1</v>
-      </c>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>18</v>
@@ -1115,513 +1084,546 @@
         <v>11</v>
       </c>
       <c r="D10" s="14" t="str">
-        <f>L10</f>
+        <f>K10</f>
         <v>Hurls a bolt of lightning that bounces up to 3 times. Each jump deals 15% less damage</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="15"/>
+      <c r="F10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="F11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="11">
+        <v>8</v>
+      </c>
+      <c r="H11" s="12">
+        <v>2</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="1">
+        <v>9</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="F12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="H12" s="12">
+        <v>3</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="F13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="12">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="1">
+        <v>4</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="11"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="F15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="11"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="14" t="str">
+        <f>K16</f>
+        <v>Explode after hit an enemy</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="13">
+        <v>1</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="11">
+        <v>10</v>
+      </c>
+      <c r="H17" s="12">
+        <v>2</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="H18" s="12">
+        <v>3</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4</v>
+      </c>
+      <c r="H19" s="12">
+        <v>4</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="1">
+        <v>3</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="11"/>
+      <c r="K20" s="19"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="11"/>
+      <c r="K21" s="19"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="14" t="str">
+        <f>K22</f>
+        <v>One punch to hit an enemy</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="16">
+        <v>1</v>
+      </c>
+      <c r="H22" s="13">
+        <v>1</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="11">
+        <v>20</v>
+      </c>
+      <c r="H23" s="12">
+        <v>2</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="H24" s="12">
+        <v>3</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="1">
+        <v>4</v>
+      </c>
+      <c r="H25" s="12">
+        <v>4</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="1">
+        <v>3</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="9"/>
+      <c r="K26" s="19"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="9"/>
+      <c r="K27" s="19"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="14" t="str">
+        <f>K28</f>
+        <v>A wave of force causing damage to land units in a line</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="16">
+        <v>1</v>
+      </c>
+      <c r="H28" s="13">
+        <v>1</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="11">
+        <v>10</v>
+      </c>
+      <c r="H29" s="12">
+        <v>2</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F30" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="H30" s="12">
+        <v>3</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4</v>
+      </c>
+      <c r="H31" s="12">
+        <v>4</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="1">
+        <v>3</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="11"/>
+      <c r="K32" s="19"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="I33" s="11"/>
+      <c r="K33" s="19"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="16">
+        <v>0</v>
+      </c>
+      <c r="H34" s="21">
+        <v>1</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K34" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17" t="s">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H35" s="22">
+        <v>2</v>
+      </c>
+      <c r="I35" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="17">
-        <v>8</v>
-      </c>
-      <c r="I10" s="13">
-        <v>1</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="G11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="I11" s="12">
-        <v>2</v>
-      </c>
-      <c r="J11" s="12" t="s">
+      <c r="J35" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="K35" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H36" s="22">
+        <v>3</v>
+      </c>
+      <c r="I36" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="1">
-        <v>9</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="G12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="1">
-        <v>2</v>
-      </c>
-      <c r="I12" s="12">
-        <v>3</v>
-      </c>
-      <c r="J12" s="12" t="s">
+      <c r="J36" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="K36" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H37" s="22">
+        <v>4</v>
+      </c>
+      <c r="I37" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="1">
-        <v>10</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="G13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="12">
-        <v>4</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" s="1">
-        <v>4</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="G14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="1">
-        <v>3</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="11"/>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="14" t="str">
-        <f>L15</f>
-        <v>Explode after hit an enemy</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17" t="s">
+      <c r="J37" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="K37" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H38" s="22">
+        <v>5</v>
+      </c>
+      <c r="I38" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="17">
-        <v>10</v>
-      </c>
-      <c r="I15" s="13">
-        <v>1</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="G16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="21">
+      <c r="J38" s="1">
         <v>1.5</v>
       </c>
-      <c r="I16" s="12">
-        <v>2</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="1">
-        <v>2</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="1">
-        <v>4</v>
-      </c>
-      <c r="I17" s="12">
-        <v>3</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="L17" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="1">
-        <v>2</v>
-      </c>
-      <c r="I18" s="12">
-        <v>4</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="1">
-        <v>3</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="11"/>
-      <c r="L19" s="20"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="14" t="str">
-        <f>L20</f>
-        <v>One punch to hit an enemy</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="17">
-        <v>20</v>
-      </c>
-      <c r="I20" s="13">
-        <v>1</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="21">
-        <v>0.15</v>
-      </c>
-      <c r="I21" s="12">
-        <v>2</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="1">
-        <v>4</v>
-      </c>
-      <c r="I22" s="12">
-        <v>3</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K22" s="1">
-        <v>2</v>
-      </c>
-      <c r="L22" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="1">
-        <v>2</v>
-      </c>
-      <c r="I23" s="12">
-        <v>4</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" s="1">
-        <v>3</v>
-      </c>
-      <c r="L23" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="9"/>
-      <c r="L24" s="20"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="14" t="str">
-        <f>L25</f>
-        <v>A wave of force causing damage to land units in a line</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="17">
-        <v>10</v>
-      </c>
-      <c r="I25" s="13">
-        <v>1</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="K25" s="2">
-        <v>0</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G26" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="21">
-        <v>1.5</v>
-      </c>
-      <c r="I26" s="12">
-        <v>2</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="1">
-        <v>2</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="1">
-        <v>4</v>
-      </c>
-      <c r="I27" s="12">
-        <v>3</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="L27" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H28" s="1">
-        <v>2</v>
-      </c>
-      <c r="I28" s="12">
-        <v>4</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="1">
-        <v>3</v>
-      </c>
-      <c r="L28" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H29" s="1">
-        <v>1</v>
-      </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="11"/>
-      <c r="L29" s="20"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="22">
-        <v>1</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L30" s="22" t="s">
+      <c r="K38" s="22" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I31" s="23">
-        <v>2</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="L31" s="23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I32" s="23">
-        <v>3</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="L32" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I33" s="23">
-        <v>4</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="L33" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I34" s="23">
-        <v>5</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="L34" s="23" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
+++ b/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tigersun/Code/GobangAdventure/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2668D73-1FBA-B741-992B-38AD37875327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CA12CA-3619-9546-8A78-746C14E71054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -810,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1092,7 +1092,7 @@
         <v>59</v>
       </c>
       <c r="G10" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="13">
         <v>1</v>
@@ -1206,7 +1206,7 @@
         <v>59</v>
       </c>
       <c r="G16" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="13">
         <v>1</v>
@@ -1320,7 +1320,7 @@
         <v>59</v>
       </c>
       <c r="G22" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="13">
         <v>1</v>
@@ -1434,7 +1434,7 @@
         <v>59</v>
       </c>
       <c r="G28" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="13">
         <v>1</v>
@@ -1547,7 +1547,7 @@
         <v>59</v>
       </c>
       <c r="G34" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="21">
         <v>1</v>

--- a/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
+++ b/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tigersun/Code/GobangAdventure/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\GobangAdventure\Unity\NewWheel\VampireBuilder1\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CA12CA-3619-9546-8A78-746C14E71054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E7B433-53E6-46AB-8508-79D138072AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
   <si>
     <t>##var</t>
   </si>
@@ -252,17 +252,36 @@
   <si>
     <t>BEHAVIOR_TYPE</t>
   </si>
+  <si>
+    <t>LUO_HAN_QUAN</t>
+  </si>
+  <si>
+    <t>Basic kungfu attack straight</t>
+  </si>
+  <si>
+    <t>Attack one more enemy</t>
+  </si>
+  <si>
+    <t>Luo Han Quan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -438,14 +457,14 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -453,83 +472,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -808,27 +833,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB38"/>
+  <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="78" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -872,7 +897,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="4" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -916,7 +941,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" s="8" customFormat="1">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -960,7 +985,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" s="4" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -998,7 +1023,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28">
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1019,7 +1044,7 @@
       <c r="I5" s="12"/>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28">
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
@@ -1033,7 +1058,7 @@
       <c r="I6" s="12"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28">
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
@@ -1047,7 +1072,7 @@
       <c r="I7" s="12"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28">
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
@@ -1061,7 +1086,7 @@
       <c r="I8" s="12"/>
       <c r="K8" s="11"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28">
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
@@ -1075,7 +1100,7 @@
       <c r="I9" s="12"/>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>18</v>
@@ -1107,7 +1132,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28">
       <c r="F11" s="11" t="s">
         <v>17</v>
       </c>
@@ -1127,7 +1152,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28">
       <c r="F12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1147,7 +1172,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28">
       <c r="F13" s="1" t="s">
         <v>56</v>
       </c>
@@ -1167,7 +1192,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28">
       <c r="F14" s="1" t="s">
         <v>57</v>
       </c>
@@ -1178,7 +1203,7 @@
       <c r="I14" s="11"/>
       <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28">
       <c r="F15" s="1" t="s">
         <v>58</v>
       </c>
@@ -1189,7 +1214,7 @@
       <c r="I15" s="11"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>54</v>
@@ -1221,7 +1246,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="F17" s="11" t="s">
         <v>17</v>
       </c>
@@ -1241,7 +1266,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="F18" s="11" t="s">
         <v>23</v>
       </c>
@@ -1261,7 +1286,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="F19" s="1" t="s">
         <v>56</v>
       </c>
@@ -1281,7 +1306,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="F20" s="1" t="s">
         <v>57</v>
       </c>
@@ -1292,7 +1317,7 @@
       <c r="I20" s="11"/>
       <c r="K20" s="19"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="F21" s="1" t="s">
         <v>58</v>
       </c>
@@ -1303,7 +1328,7 @@
       <c r="I21" s="11"/>
       <c r="K21" s="19"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>36</v>
@@ -1335,7 +1360,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="F23" s="11" t="s">
         <v>17</v>
       </c>
@@ -1355,7 +1380,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="F24" s="9" t="s">
         <v>33</v>
       </c>
@@ -1375,7 +1400,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="F25" s="1" t="s">
         <v>56</v>
       </c>
@@ -1395,7 +1420,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="F26" s="1" t="s">
         <v>57</v>
       </c>
@@ -1406,7 +1431,7 @@
       <c r="I26" s="9"/>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="F27" s="1" t="s">
         <v>58</v>
       </c>
@@ -1417,7 +1442,7 @@
       <c r="I27" s="9"/>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>48</v>
@@ -1449,7 +1474,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="F29" s="11" t="s">
         <v>17</v>
       </c>
@@ -1469,7 +1494,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="F30" s="11" t="s">
         <v>23</v>
       </c>
@@ -1489,7 +1514,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="F31" s="1" t="s">
         <v>56</v>
       </c>
@@ -1509,7 +1534,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="F32" s="1" t="s">
         <v>57</v>
       </c>
@@ -1520,7 +1545,7 @@
       <c r="I32" s="11"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="F33" s="1" t="s">
         <v>58</v>
       </c>
@@ -1531,90 +1556,204 @@
       <c r="I33" s="11"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="2"/>
-      <c r="B34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="2"/>
+      <c r="B34" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="14" t="str">
+        <f>K34</f>
+        <v>Basic kungfu attack straight</v>
+      </c>
+      <c r="E34" s="15"/>
       <c r="F34" s="18" t="s">
         <v>59</v>
       </c>
       <c r="G34" s="16">
+        <v>0</v>
+      </c>
+      <c r="H34" s="13">
         <v>1</v>
       </c>
-      <c r="H34" s="21">
+      <c r="I34" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="F35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="11">
+        <v>20</v>
+      </c>
+      <c r="H35" s="12">
+        <v>2</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J35" s="1">
+        <v>2</v>
+      </c>
+      <c r="K35" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="F36" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="H36" s="12">
+        <v>3</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" s="1">
+        <v>3</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="F37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="1">
+        <v>4</v>
+      </c>
+      <c r="H37" s="12">
+        <v>4</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J37" s="1">
+        <v>4</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="F38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2</v>
+      </c>
+      <c r="H38" s="12"/>
+      <c r="I38" s="9"/>
+      <c r="K38" s="19"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="F39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="1">
         <v>1</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="H39" s="12"/>
+      <c r="I39" s="9"/>
+      <c r="K39" s="19"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J34" s="2">
+      <c r="C40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" s="16">
+        <v>1</v>
+      </c>
+      <c r="H40" s="21">
+        <v>1</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K34" s="21" t="s">
+      <c r="K40" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H35" s="22">
+    <row r="41" spans="1:11">
+      <c r="H41" s="22">
         <v>2</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="I41" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J41" s="1">
         <v>1.2</v>
       </c>
-      <c r="K35" s="22" t="s">
+      <c r="K41" s="22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H36" s="22">
+    <row r="42" spans="1:11">
+      <c r="H42" s="22">
         <v>3</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I42" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J42" s="1">
         <v>1.3</v>
       </c>
-      <c r="K36" s="22" t="s">
+      <c r="K42" s="22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H37" s="22">
+    <row r="43" spans="1:11">
+      <c r="H43" s="22">
         <v>4</v>
       </c>
-      <c r="I37" s="12" t="s">
+      <c r="I43" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J43" s="1">
         <v>1.4</v>
       </c>
-      <c r="K37" s="22" t="s">
+      <c r="K43" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H38" s="22">
+    <row r="44" spans="1:11">
+      <c r="H44" s="22">
         <v>5</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="I44" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J44" s="1">
         <v>1.5</v>
       </c>
-      <c r="K38" s="22" t="s">
+      <c r="K44" s="22" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
+++ b/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\GobangAdventure\Unity\NewWheel\VampireBuilder1\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E7B433-53E6-46AB-8508-79D138072AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02C51C1-2AD7-4ACC-A657-3DAEF9199856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="67">
   <si>
     <t>##var</t>
   </si>
@@ -263,6 +263,15 @@
   </si>
   <si>
     <t>Luo Han Quan</t>
+  </si>
+  <si>
+    <t>TIAN_SHAN_LIU_YANG_ZHANG</t>
+  </si>
+  <si>
+    <t>Tian Shan Liu Yang Zhang</t>
+  </si>
+  <si>
+    <t>Strike through the end and return back</t>
   </si>
 </sst>
 </file>
@@ -833,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB44"/>
+  <dimension ref="A1:AB50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1672,88 +1681,172 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="2"/>
-      <c r="B40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="2"/>
+      <c r="B40" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="14" t="str">
+        <f>K40</f>
+        <v>Strike through the end and return back</v>
+      </c>
+      <c r="E40" s="15"/>
       <c r="F40" s="18" t="s">
         <v>59</v>
       </c>
       <c r="G40" s="16">
+        <v>0</v>
+      </c>
+      <c r="H40" s="13">
         <v>1</v>
       </c>
-      <c r="H40" s="21">
+      <c r="I40" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="F41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="11">
+        <v>20</v>
+      </c>
+      <c r="H41" s="12"/>
+      <c r="K41" s="30"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="F42" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="H42" s="12"/>
+      <c r="K42" s="19"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="F43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" s="1">
+        <v>4</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="K43" s="19"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="F44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+      <c r="H44" s="12"/>
+      <c r="I44" s="9"/>
+      <c r="K44" s="19"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="F45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="1">
+        <v>4</v>
+      </c>
+      <c r="H45" s="12"/>
+      <c r="I45" s="9"/>
+      <c r="K45" s="19"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="16">
         <v>1</v>
       </c>
-      <c r="I40" s="13" t="s">
+      <c r="H46" s="21">
+        <v>1</v>
+      </c>
+      <c r="I46" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J46" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K40" s="21" t="s">
+      <c r="K46" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="H41" s="22">
+    <row r="47" spans="1:11">
+      <c r="H47" s="22">
         <v>2</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="I47" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J47" s="1">
         <v>1.2</v>
       </c>
-      <c r="K41" s="22" t="s">
+      <c r="K47" s="22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="H42" s="22">
+    <row r="48" spans="1:11">
+      <c r="H48" s="22">
         <v>3</v>
       </c>
-      <c r="I42" s="12" t="s">
+      <c r="I48" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J48" s="1">
         <v>1.3</v>
       </c>
-      <c r="K42" s="22" t="s">
+      <c r="K48" s="22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="H43" s="22">
+    <row r="49" spans="8:11">
+      <c r="H49" s="22">
         <v>4</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I49" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J49" s="1">
         <v>1.4</v>
       </c>
-      <c r="K43" s="22" t="s">
+      <c r="K49" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="H44" s="22">
+    <row r="50" spans="8:11">
+      <c r="H50" s="22">
         <v>5</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I50" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J50" s="1">
         <v>1.5</v>
       </c>
-      <c r="K44" s="22" t="s">
+      <c r="K50" s="22" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
+++ b/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\GobangAdventure\Unity\NewWheel\VampireBuilder1\DesignerConfigs\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tigersun/Code/GobangAdventure/Unity/NewWheel/VampireBuilder1/DesignerConfigs/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02C51C1-2AD7-4ACC-A657-3DAEF9199856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C7F87C-4256-C44A-9F9C-2794A2589144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="68">
   <si>
     <t>##var</t>
   </si>
@@ -103,9 +103,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>dependencies</t>
-  </si>
-  <si>
     <t>Chain Lightning</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
     <t>SkillId</t>
   </si>
   <si>
-    <t>(list#sep=;),SkillId</t>
-  </si>
-  <si>
     <t>*initialAttributes</t>
   </si>
   <si>
@@ -272,13 +266,22 @@
   </si>
   <si>
     <t>Strike through the end and return back</t>
+  </si>
+  <si>
+    <t>skillId</t>
+  </si>
+  <si>
+    <t>list,SkillDependency</t>
+  </si>
+  <si>
+    <t>*dependencies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,7 +476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -541,6 +544,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -559,11 +568,11 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -842,27 +851,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB50"/>
+  <dimension ref="A1:AC50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="78" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.1640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="78" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1">
+    <row r="1" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -875,20 +886,20 @@
       <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="1"/>
+      <c r="E1" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="32"/>
+      <c r="G1" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="28"/>
+      <c r="I1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -905,34 +916,39 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
-    </row>
-    <row r="2" spans="1:28" s="4" customFormat="1">
+      <c r="AC1" s="1"/>
+    </row>
+    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="F2" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -949,13 +965,14 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
-    </row>
-    <row r="3" spans="1:28" s="8" customFormat="1">
+      <c r="AC2" s="1"/>
+    </row>
+    <row r="3" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>4</v>
@@ -963,20 +980,20 @@
       <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="1"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -993,8 +1010,9 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
-    </row>
-    <row r="4" spans="1:28" s="4" customFormat="1">
+      <c r="AC3" s="1"/>
+    </row>
+    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1010,11 +1028,11 @@
       <c r="E4" s="3"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="1"/>
+      <c r="L4" s="3"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1031,831 +1049,856 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="AC4" s="1"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="F5" s="10"/>
+      <c r="G5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="11">
         <v>1</v>
       </c>
-      <c r="H5" s="12"/>
       <c r="I5" s="12"/>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="J5" s="12"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="11">
+      <c r="F6" s="10"/>
+      <c r="G6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="11">
         <v>0.05</v>
       </c>
-      <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="J6" s="12"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="11">
+      <c r="F7" s="10"/>
+      <c r="G7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="11">
         <v>2</v>
       </c>
-      <c r="H7" s="12"/>
       <c r="I7" s="12"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="J7" s="12"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="11">
+      <c r="F8" s="10"/>
+      <c r="G8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="11">
         <v>1</v>
       </c>
-      <c r="H8" s="12"/>
       <c r="I8" s="12"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="J8" s="12"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="11">
+      <c r="F9" s="10"/>
+      <c r="G9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="11">
         <v>1</v>
       </c>
-      <c r="H9" s="12"/>
       <c r="I9" s="12"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="J9" s="12"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="14" t="str">
-        <f>K10</f>
+        <f>L10</f>
         <v>Hurls a bolt of lightning that bounces up to 3 times. Each jump deals 15% less damage</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="16">
+      <c r="F10" s="15"/>
+      <c r="G10" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="16">
         <v>0</v>
       </c>
-      <c r="H10" s="13">
+      <c r="I10" s="13">
         <v>1</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="J10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="K10" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
-      <c r="F11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="L10" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="G11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="11">
         <v>8</v>
       </c>
-      <c r="H11" s="12">
+      <c r="I11" s="12">
         <v>2</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="J11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="1">
         <v>9</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="L11" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="G12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="I12" s="12">
+        <v>3</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="1">
+        <v>10</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="G13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="12">
+        <v>4</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4</v>
+      </c>
+      <c r="L13" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
-      <c r="F12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="H12" s="12">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="G14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="11"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="G15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="1">
         <v>3</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="1">
-        <v>10</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
-      <c r="F13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2</v>
-      </c>
-      <c r="H13" s="12">
-        <v>4</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" s="1">
-        <v>4</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
-      <c r="F14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="11"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:28">
-      <c r="F15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="1">
-        <v>3</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="11"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="I15" s="12"/>
+      <c r="J15" s="11"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="14" t="str">
+        <f>L16</f>
+        <v>Explode after hit an enemy</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13">
+        <v>1</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="11">
+        <v>10</v>
+      </c>
+      <c r="I17" s="12">
+        <v>2</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="I18" s="12">
+        <v>3</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="H19" s="1">
+        <v>4</v>
+      </c>
+      <c r="I19" s="12">
+        <v>4</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="1">
+        <v>3</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="14" t="str">
-        <f>K16</f>
-        <v>Explode after hit an enemy</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="16">
-        <v>0</v>
-      </c>
-      <c r="H16" s="13">
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="11"/>
+      <c r="L20" s="19"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="1">
         <v>1</v>
       </c>
-      <c r="I16" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="F17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="11">
-        <v>10</v>
-      </c>
-      <c r="H17" s="12">
-        <v>2</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="1">
-        <v>2</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="F18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="H18" s="12">
-        <v>3</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="F19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="1">
-        <v>4</v>
-      </c>
-      <c r="H19" s="12">
-        <v>4</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="1">
-        <v>3</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="F20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="11"/>
-      <c r="K20" s="19"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="F21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="11"/>
-      <c r="K21" s="19"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="I21" s="12"/>
+      <c r="J21" s="11"/>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="14" t="str">
+        <f>L22</f>
+        <v>One punch to hit an enemy</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="16">
+        <v>0</v>
+      </c>
+      <c r="I22" s="13">
+        <v>1</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="18" t="s">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="11">
+        <v>20</v>
+      </c>
+      <c r="I23" s="12">
+        <v>2</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="14" t="str">
-        <f>K22</f>
-        <v>One punch to hit an enemy</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="16">
-        <v>0</v>
-      </c>
-      <c r="H22" s="13">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G24" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="I24" s="12">
+        <v>3</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="1">
+        <v>4</v>
+      </c>
+      <c r="I25" s="12">
+        <v>4</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="1">
+        <v>3</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="9"/>
+      <c r="L26" s="19"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="1">
         <v>1</v>
       </c>
-      <c r="I22" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="F23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="11">
-        <v>20</v>
-      </c>
-      <c r="H23" s="12">
-        <v>2</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="F24" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="20">
-        <v>0.15</v>
-      </c>
-      <c r="H24" s="12">
-        <v>3</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="1">
-        <v>2</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="F25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" s="1">
-        <v>4</v>
-      </c>
-      <c r="H25" s="12">
-        <v>4</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="1">
-        <v>3</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="F26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="1">
-        <v>2</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="9"/>
-      <c r="K26" s="19"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="F27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="9"/>
-      <c r="K27" s="19"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="I27" s="12"/>
+      <c r="J27" s="9"/>
+      <c r="L27" s="19"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="14" t="str">
+        <f>L28</f>
+        <v>A wave of force causing damage to land units in a line</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0</v>
+      </c>
+      <c r="I28" s="13">
+        <v>1</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="11">
+        <v>10</v>
+      </c>
+      <c r="I29" s="12">
+        <v>2</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="1">
+        <v>2</v>
+      </c>
+      <c r="L29" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="14" t="str">
-        <f>K28</f>
-        <v>A wave of force causing damage to land units in a line</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="18" t="s">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="I30" s="12">
+        <v>3</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="1">
+        <v>4</v>
+      </c>
+      <c r="I31" s="12">
+        <v>4</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="1">
+        <v>3</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2</v>
+      </c>
+      <c r="I32" s="12"/>
+      <c r="J32" s="11"/>
+      <c r="L32" s="19"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" s="12"/>
+      <c r="J33" s="11"/>
+      <c r="L33" s="19"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="14" t="str">
+        <f>L34</f>
+        <v>Basic kungfu attack straight</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" s="16">
+        <v>0</v>
+      </c>
+      <c r="I34" s="13">
+        <v>1</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="16">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G35" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="11">
+        <v>20</v>
+      </c>
+      <c r="I35" s="12">
+        <v>2</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K35" s="1">
+        <v>2</v>
+      </c>
+      <c r="L35" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G36" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="I36" s="12">
+        <v>3</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K36" s="1">
+        <v>3</v>
+      </c>
+      <c r="L36" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="1">
+        <v>4</v>
+      </c>
+      <c r="I37" s="12">
+        <v>4</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K37" s="1">
+        <v>4</v>
+      </c>
+      <c r="L37" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2</v>
+      </c>
+      <c r="I38" s="12"/>
+      <c r="J38" s="9"/>
+      <c r="L38" s="19"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="I39" s="12"/>
+      <c r="J39" s="9"/>
+      <c r="L39" s="19"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="14" t="str">
+        <f>L40</f>
+        <v>Strike through the end and return back</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="23">
+        <v>4</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H40" s="16">
         <v>0</v>
       </c>
-      <c r="H28" s="13">
+      <c r="I40" s="13">
         <v>1</v>
       </c>
-      <c r="I28" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J28" s="2">
+      <c r="J40" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K40" s="2">
         <v>0</v>
       </c>
-      <c r="K28" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="F29" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="11">
-        <v>10</v>
-      </c>
-      <c r="H29" s="12">
+      <c r="L40" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="11">
+        <v>20</v>
+      </c>
+      <c r="I41" s="12"/>
+      <c r="L41" s="24"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="I42" s="12"/>
+      <c r="L42" s="19"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" s="1">
+        <v>4</v>
+      </c>
+      <c r="I43" s="12"/>
+      <c r="L43" s="19"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44" s="1">
         <v>2</v>
       </c>
-      <c r="I29" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" s="1">
-        <v>2</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="F30" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="H30" s="12">
-        <v>3</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="F31" s="1" t="s">
+      <c r="I44" s="12"/>
+      <c r="J44" s="9"/>
+      <c r="L44" s="19"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G45" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H45" s="1">
         <v>4</v>
       </c>
-      <c r="H31" s="12">
-        <v>4</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="1">
-        <v>3</v>
-      </c>
-      <c r="K31" s="19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="F32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32" s="1">
-        <v>2</v>
-      </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="11"/>
-      <c r="K32" s="19"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="F33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="11"/>
-      <c r="K33" s="19"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="2"/>
-      <c r="B34" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="14" t="str">
-        <f>K34</f>
-        <v>Basic kungfu attack straight</v>
-      </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" s="16">
-        <v>0</v>
-      </c>
-      <c r="H34" s="13">
-        <v>1</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J34" s="2">
-        <v>0</v>
-      </c>
-      <c r="K34" s="29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="F35" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="11">
-        <v>20</v>
-      </c>
-      <c r="H35" s="12">
-        <v>2</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J35" s="1">
-        <v>2</v>
-      </c>
-      <c r="K35" s="30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="F36" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="20">
-        <v>0.15</v>
-      </c>
-      <c r="H36" s="12">
-        <v>3</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J36" s="1">
-        <v>3</v>
-      </c>
-      <c r="K36" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="F37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37" s="1">
-        <v>4</v>
-      </c>
-      <c r="H37" s="12">
-        <v>4</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J37" s="1">
-        <v>4</v>
-      </c>
-      <c r="K37" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="F38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38" s="1">
-        <v>2</v>
-      </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="9"/>
-      <c r="K38" s="19"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="F39" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1</v>
-      </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="9"/>
-      <c r="K39" s="19"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="2"/>
-      <c r="B40" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="14" t="str">
-        <f>K40</f>
-        <v>Strike through the end and return back</v>
-      </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G40" s="16">
-        <v>0</v>
-      </c>
-      <c r="H40" s="13">
-        <v>1</v>
-      </c>
-      <c r="I40" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J40" s="2">
-        <v>0</v>
-      </c>
-      <c r="K40" s="29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="F41" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="11">
-        <v>20</v>
-      </c>
-      <c r="H41" s="12"/>
-      <c r="K41" s="30"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="F42" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="20">
-        <v>0.15</v>
-      </c>
-      <c r="H42" s="12"/>
-      <c r="K42" s="19"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="F43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G43" s="1">
-        <v>4</v>
-      </c>
-      <c r="H43" s="12"/>
-      <c r="K43" s="19"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="F44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G44" s="1">
-        <v>2</v>
-      </c>
-      <c r="H44" s="12"/>
-      <c r="I44" s="9"/>
-      <c r="K44" s="19"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="F45" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="1">
-        <v>4</v>
-      </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="9"/>
-      <c r="K45" s="19"/>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="I45" s="12"/>
+      <c r="J45" s="9"/>
+      <c r="L45" s="19"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H46" s="16">
+        <v>1</v>
+      </c>
+      <c r="I46" s="21">
+        <v>1</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L46" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I47" s="22">
+        <v>2</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="L47" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" s="16">
-        <v>1</v>
-      </c>
-      <c r="H46" s="21">
-        <v>1</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K46" s="21" t="s">
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I48" s="22">
+        <v>3</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="L48" s="22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="H47" s="22">
-        <v>2</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="K47" s="22" t="s">
+    <row r="49" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I49" s="22">
+        <v>4</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="L49" s="22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="H48" s="22">
-        <v>3</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="K48" s="22" t="s">
+    <row r="50" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I50" s="22">
+        <v>5</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L50" s="22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="8:11">
-      <c r="H49" s="22">
-        <v>4</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J49" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="K49" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="8:11">
-      <c r="H50" s="22">
-        <v>5</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="K50" s="22" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F3:G3"/>
+  <mergeCells count="6">
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
